--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,9 +43,6 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -58,22 +55,28 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>special</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thank</t>
@@ -82,55 +85,49 @@
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>hand</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>please</t>
@@ -499,10 +496,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -610,37 +607,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C4">
+        <v>181</v>
+      </c>
+      <c r="D4">
+        <v>181</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>111</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -660,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7142857142857143</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="C5">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3133047210300429</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C6">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,69 +725,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.875</v>
+      </c>
+      <c r="L6">
+        <v>98</v>
+      </c>
+      <c r="M6">
+        <v>98</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0.9375</v>
-      </c>
-      <c r="L6">
-        <v>15</v>
-      </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C7">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>67</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,21 +775,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -833,16 +806,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8703703703703703</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -854,21 +827,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8571428571428571</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -880,21 +853,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8518518518518519</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -906,21 +879,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -932,21 +905,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -958,21 +931,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7413793103448276</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,21 +957,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L15">
         <v>26</v>
       </c>
-      <c r="K15">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L15">
-        <v>21</v>
-      </c>
       <c r="M15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,21 +983,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6986301369863014</v>
+        <v>0.7</v>
       </c>
       <c r="L16">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,21 +1009,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,21 +1035,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.68</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1088,21 +1061,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19">
+        <v>0.6</v>
+      </c>
+      <c r="L19">
         <v>30</v>
       </c>
-      <c r="K19">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L19">
-        <v>14</v>
-      </c>
       <c r="M19">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1114,21 +1087,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1140,47 +1113,47 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6060606060606061</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L21">
+        <v>28</v>
+      </c>
+      <c r="M21">
+        <v>28</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>20</v>
-      </c>
-      <c r="M21">
-        <v>20</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.5509138381201044</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1192,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5211267605633803</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L23">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1218,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5208333333333334</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L24">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="M24">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1244,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>69</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1270,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4571428571428571</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1296,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4186046511627907</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L27">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1322,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4130434782608696</v>
+        <v>0.3263598326359833</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1348,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>54</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,70 +64,67 @@
     <t>best</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>love</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>please</t>
@@ -488,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,7 +496,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -557,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -607,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6198630136986302</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C4">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
@@ -657,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1705426356589147</v>
+        <v>0.1763565891472868</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -707,13 +704,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1428571428571428</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +754,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -801,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -809,13 +806,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -827,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -835,13 +832,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.796875</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -861,13 +858,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -887,13 +884,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7583333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L12">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M12">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -905,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -913,13 +910,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7394366197183099</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L13">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="M13">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -939,25 +936,25 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7254901960784313</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L14">
+        <v>105</v>
+      </c>
+      <c r="M14">
+        <v>105</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>37</v>
-      </c>
-      <c r="M14">
-        <v>37</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -991,13 +988,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7</v>
+        <v>0.71875</v>
       </c>
       <c r="L16">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M16">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1017,13 +1014,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6792452830188679</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L17">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1035,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1043,13 +1040,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6190476190476191</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1069,13 +1066,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1095,13 +1092,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5851063829787234</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L20">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M20">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1121,13 +1118,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5833333333333334</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1147,13 +1144,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5509138381201044</v>
+        <v>0.54</v>
       </c>
       <c r="L22">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>172</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1173,13 +1170,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5319148936170213</v>
+        <v>0.5039164490861618</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1199,13 +1196,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4764705882352941</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L24">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M24">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1225,13 +1222,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.449438202247191</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1243,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>49</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1251,13 +1248,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4305084745762712</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L26">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>168</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1277,13 +1274,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3561643835616438</v>
+        <v>0.3514644351464435</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,33 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28">
-        <v>0.3263598326359833</v>
-      </c>
-      <c r="L28">
-        <v>78</v>
-      </c>
-      <c r="M28">
-        <v>78</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,21 +55,21 @@
     <t>negative</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -79,39 +79,36 @@
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
@@ -121,10 +118,16 @@
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +607,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.613013698630137</v>
+        <v>0.6061643835616438</v>
       </c>
       <c r="C4">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D4">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +625,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1763565891472868</v>
+        <v>0.189922480620155</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1587301587301587</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +757,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +783,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +809,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +835,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.796875</v>
+        <v>0.765625</v>
       </c>
       <c r="L10">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M10">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +861,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +887,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7833333333333333</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L12">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M12">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -910,13 +913,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7452830188679245</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -928,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -936,13 +939,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7394366197183099</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L14">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -962,13 +965,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7222222222222222</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +991,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.71875</v>
+        <v>0.68125</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1017,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.7058823529411765</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1040,13 +1043,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6349206349206349</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1066,13 +1069,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5833333333333334</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,13 +1095,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.574468085106383</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.574468085106383</v>
+        <v>0.58</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1147,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.54</v>
+        <v>0.5221932114882507</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1173,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5039164490861618</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="L23">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="M23">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1199,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4647058823529412</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L24">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>182</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1225,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4101694915254237</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L25">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>174</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1251,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4044943820224719</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>53</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,13 +1277,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3514644351464435</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L27">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1292,7 +1295,33 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>155</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3305439330543933</v>
+      </c>
+      <c r="L28">
+        <v>79</v>
+      </c>
+      <c r="M28">
+        <v>79</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
